--- a/dbstock/รายงานสินค้า3.xlsx
+++ b/dbstock/รายงานสินค้า3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Desktop\dbstock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F77C307-6E3A-4D32-BE47-F6E343E8F261}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5541A0-86DE-43B1-BDD5-164150C7C6B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -860,10 +860,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{895159FF-CE8C-4023-9EB2-86894ED9C320}" name="unit__3" displayName="unit__3" ref="A1:A80" tableType="queryTable" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{895159FF-CE8C-4023-9EB2-86894ED9C320}" name="unit__3" displayName="unit__3" ref="A1:A80" tableType="queryTable" totalsRowShown="0" dataDxfId="1">
   <autoFilter ref="A1:A80" xr:uid="{DB82DB9D-27F6-4E40-84CE-45415F0F96A8}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{8687DBC2-9A51-4C5C-AF12-1A88EA01F627}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{8687DBC2-9A51-4C5C-AF12-1A88EA01F627}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1647,8 +1647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
